--- a/Doble Rendija/Datos parte 2.xlsx
+++ b/Doble Rendija/Datos parte 2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sm.hernandezc1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Documentos\Séptimo Semestre\Lab Intermedio\Códigos Bitácoras\Laboratorio-Intermedio\Doble Rendija\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C74D9C72-3AAD-42A2-83CF-750497DC5075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1361BF-1917-4A77-AA47-2935A099F13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{03BB1AE2-F1E5-4BA1-B1D7-E0075C3E2C69}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1064,9 +1065,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1104,7 +1105,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1210,7 +1211,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1352,7 +1353,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1362,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930EBE09-5D1A-4CC7-9427-988EE9F6E97D}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -1953,15 +1954,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457FB73D-A3BB-4F62-9744-77D226C81B02}">
-  <dimension ref="A1:E401"/>
+  <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1979,7 +1980,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1996,8 +1997,12 @@
         <f>(B2+C2+D2)/3</f>
         <v>193.66666666666666</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>(C2+D2+E2)/3</f>
+        <v>194.88888888888889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -2014,8 +2019,12 @@
         <f t="shared" ref="E3:E66" si="0">(B3+C3+D3)/3</f>
         <v>190.66666666666666</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>(C3+D3+E3)/3</f>
+        <v>194.88888888888889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -2032,8 +2041,12 @@
         <f t="shared" si="0"/>
         <v>189.66666666666666</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>(C4+D4+E4)/3</f>
+        <v>187.55555555555554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -2050,8 +2063,12 @@
         <f t="shared" si="0"/>
         <v>187.33333333333334</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f>(C5+D5+E5)/3</f>
+        <v>183.44444444444446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -2068,8 +2085,12 @@
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f>(C6+D6+E6)/3</f>
+        <v>179.66666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>12</v>
       </c>
@@ -2086,8 +2107,12 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f>(C7+D7+E7)/3</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>14</v>
       </c>
@@ -2104,8 +2129,12 @@
         <f t="shared" si="0"/>
         <v>176.33333333333334</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f>(C8+D8+E8)/3</f>
+        <v>174.44444444444446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -2122,8 +2151,12 @@
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f>(C9+D9+E9)/3</f>
+        <v>175.66666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18</v>
       </c>
@@ -2140,8 +2173,12 @@
         <f t="shared" si="0"/>
         <v>168.33333333333334</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>(C10+D10+E10)/3</f>
+        <v>173.7777777777778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20</v>
       </c>
@@ -2158,8 +2195,12 @@
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f>(C11+D11+E11)/3</f>
+        <v>152.66666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -2176,8 +2217,12 @@
         <f t="shared" si="0"/>
         <v>154.33333333333334</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f>(C12+D12+E12)/3</f>
+        <v>154.44444444444446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24</v>
       </c>
@@ -2194,8 +2239,12 @@
         <f t="shared" si="0"/>
         <v>134.66666666666666</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f>(C13+D13+E13)/3</f>
+        <v>137.55555555555554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>26</v>
       </c>
@@ -2212,8 +2261,12 @@
         <f t="shared" si="0"/>
         <v>127.33333333333333</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>(C14+D14+E14)/3</f>
+        <v>129.11111111111111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>28</v>
       </c>
@@ -2230,8 +2283,12 @@
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f>(C15+D15+E15)/3</f>
+        <v>120.33333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>30</v>
       </c>
@@ -2248,8 +2305,12 @@
         <f t="shared" si="0"/>
         <v>121.66666666666667</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f>(C16+D16+E16)/3</f>
+        <v>120.22222222222223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>32</v>
       </c>
@@ -2266,8 +2327,12 @@
         <f t="shared" si="0"/>
         <v>110.66666666666667</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f>(C17+D17+E17)/3</f>
+        <v>114.55555555555556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>34</v>
       </c>
@@ -2284,8 +2349,12 @@
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f>(C18+D18+E18)/3</f>
+        <v>112.33333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>36</v>
       </c>
@@ -2302,8 +2371,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f>(C19+D19+E19)/3</f>
+        <v>101.66666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>38</v>
       </c>
@@ -2320,8 +2393,12 @@
         <f t="shared" si="0"/>
         <v>101.33333333333333</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f>(C20+D20+E20)/3</f>
+        <v>100.44444444444444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>40</v>
       </c>
@@ -2338,8 +2415,12 @@
         <f t="shared" si="0"/>
         <v>110.66666666666667</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f>(C21+D21+E21)/3</f>
+        <v>109.22222222222223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>42</v>
       </c>
@@ -2356,8 +2437,12 @@
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f>(C22+D22+E22)/3</f>
+        <v>113.66666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>44</v>
       </c>
@@ -2374,8 +2459,12 @@
         <f t="shared" si="0"/>
         <v>115.66666666666667</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f>(C23+D23+E23)/3</f>
+        <v>113.55555555555556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>46</v>
       </c>
@@ -2392,8 +2481,12 @@
         <f t="shared" si="0"/>
         <v>122.33333333333333</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f>(C24+D24+E24)/3</f>
+        <v>123.77777777777777</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>48</v>
       </c>
@@ -2410,8 +2503,12 @@
         <f t="shared" si="0"/>
         <v>129.33333333333334</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f>(C25+D25+E25)/3</f>
+        <v>130.11111111111111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>50</v>
       </c>
@@ -2428,8 +2525,12 @@
         <f t="shared" si="0"/>
         <v>133.66666666666666</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f>(C26+D26+E26)/3</f>
+        <v>132.2222222222222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>52</v>
       </c>
@@ -2446,8 +2547,12 @@
         <f t="shared" si="0"/>
         <v>143.33333333333334</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f>(C27+D27+E27)/3</f>
+        <v>143.7777777777778</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>54</v>
       </c>
@@ -2464,8 +2569,12 @@
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f>(C28+D28+E28)/3</f>
+        <v>146.66666666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>56</v>
       </c>
@@ -2482,8 +2591,12 @@
         <f t="shared" si="0"/>
         <v>159.66666666666666</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f>(C29+D29+E29)/3</f>
+        <v>160.88888888888889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>58</v>
       </c>
@@ -2500,8 +2613,12 @@
         <f t="shared" si="0"/>
         <v>179</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f>(C30+D30+E30)/3</f>
+        <v>179.66666666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>60</v>
       </c>
@@ -2518,8 +2635,12 @@
         <f t="shared" si="0"/>
         <v>179.66666666666666</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f>(C31+D31+E31)/3</f>
+        <v>181.88888888888889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>62</v>
       </c>
@@ -2536,8 +2657,12 @@
         <f t="shared" si="0"/>
         <v>192.33333333333334</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f>(C32+D32+E32)/3</f>
+        <v>191.44444444444446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>64</v>
       </c>
@@ -2554,8 +2679,12 @@
         <f t="shared" si="0"/>
         <v>209.33333333333334</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f>(C33+D33+E33)/3</f>
+        <v>210.44444444444446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>66</v>
       </c>
@@ -2572,8 +2701,12 @@
         <f t="shared" si="0"/>
         <v>202.33333333333334</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f>(C34+D34+E34)/3</f>
+        <v>203.7777777777778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>68</v>
       </c>
@@ -2590,8 +2723,12 @@
         <f t="shared" si="0"/>
         <v>220.66666666666666</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f>(C35+D35+E35)/3</f>
+        <v>216.2222222222222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>70</v>
       </c>
@@ -2608,8 +2745,12 @@
         <f t="shared" si="0"/>
         <v>246.66666666666666</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f>(C36+D36+E36)/3</f>
+        <v>248.2222222222222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>72</v>
       </c>
@@ -2626,8 +2767,12 @@
         <f t="shared" si="0"/>
         <v>229.66666666666666</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f>(C37+D37+E37)/3</f>
+        <v>231.2222222222222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>74</v>
       </c>
@@ -2644,8 +2789,12 @@
         <f t="shared" si="0"/>
         <v>239.33333333333334</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f>(C38+D38+E38)/3</f>
+        <v>240.44444444444446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>76</v>
       </c>
@@ -2662,8 +2811,12 @@
         <f t="shared" si="0"/>
         <v>239.33333333333334</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f>(C39+D39+E39)/3</f>
+        <v>235.44444444444446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>78</v>
       </c>
@@ -2680,8 +2833,12 @@
         <f t="shared" si="0"/>
         <v>244</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f>(C40+D40+E40)/3</f>
+        <v>240.33333333333334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>80</v>
       </c>
@@ -2698,8 +2855,12 @@
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f>(C41+D41+E41)/3</f>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>82</v>
       </c>
@@ -2716,8 +2877,12 @@
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f>(C42+D42+E42)/3</f>
+        <v>252.66666666666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>84</v>
       </c>
@@ -2734,8 +2899,12 @@
         <f t="shared" si="0"/>
         <v>246.66666666666666</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f>(C43+D43+E43)/3</f>
+        <v>247.88888888888889</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>86</v>
       </c>
@@ -2752,8 +2921,12 @@
         <f t="shared" si="0"/>
         <v>235.66666666666666</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f>(C44+D44+E44)/3</f>
+        <v>238.55555555555554</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>88</v>
       </c>
@@ -2770,8 +2943,12 @@
         <f t="shared" si="0"/>
         <v>230.33333333333334</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f>(C45+D45+E45)/3</f>
+        <v>239.44444444444446</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>90</v>
       </c>
@@ -2788,8 +2965,12 @@
         <f t="shared" si="0"/>
         <v>222</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f>(C46+D46+E46)/3</f>
+        <v>224.33333333333334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>92</v>
       </c>
@@ -2806,8 +2987,12 @@
         <f t="shared" si="0"/>
         <v>207</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f>(C47+D47+E47)/3</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>94</v>
       </c>
@@ -2824,8 +3009,12 @@
         <f t="shared" si="0"/>
         <v>209.33333333333334</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f>(C48+D48+E48)/3</f>
+        <v>212.44444444444446</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>96</v>
       </c>
@@ -2842,8 +3031,12 @@
         <f t="shared" si="0"/>
         <v>200.66666666666666</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f>(C49+D49+E49)/3</f>
+        <v>200.88888888888889</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>98</v>
       </c>
@@ -2860,8 +3053,12 @@
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f>(C50+D50+E50)/3</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>100</v>
       </c>
@@ -2878,8 +3075,12 @@
         <f t="shared" si="0"/>
         <v>187</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f>(C51+D51+E51)/3</f>
+        <v>182.66666666666666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>102</v>
       </c>
@@ -2896,8 +3097,12 @@
         <f t="shared" si="0"/>
         <v>170.33333333333334</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f>(C52+D52+E52)/3</f>
+        <v>172.11111111111111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>104</v>
       </c>
@@ -2914,8 +3119,12 @@
         <f t="shared" si="0"/>
         <v>154.66666666666666</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f>(C53+D53+E53)/3</f>
+        <v>152.88888888888889</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>106</v>
       </c>
@@ -2932,8 +3141,12 @@
         <f t="shared" si="0"/>
         <v>155.66666666666666</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f>(C54+D54+E54)/3</f>
+        <v>152.55555555555554</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>108</v>
       </c>
@@ -2950,8 +3163,12 @@
         <f t="shared" si="0"/>
         <v>149.66666666666666</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f>(C55+D55+E55)/3</f>
+        <v>148.2222222222222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>110</v>
       </c>
@@ -2968,8 +3185,12 @@
         <f t="shared" si="0"/>
         <v>131.33333333333334</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f>(C56+D56+E56)/3</f>
+        <v>131.7777777777778</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>112</v>
       </c>
@@ -2986,8 +3207,12 @@
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f>(C57+D57+E57)/3</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>114</v>
       </c>
@@ -3004,8 +3229,12 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f>(C58+D58+E58)/3</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>116</v>
       </c>
@@ -3022,8 +3251,12 @@
         <f t="shared" si="0"/>
         <v>124.66666666666667</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f>(C59+D59+E59)/3</f>
+        <v>127.22222222222223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>118</v>
       </c>
@@ -3040,8 +3273,12 @@
         <f t="shared" si="0"/>
         <v>125.33333333333333</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f>(C60+D60+E60)/3</f>
+        <v>127.1111111111111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>120</v>
       </c>
@@ -3058,8 +3295,12 @@
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f>(C61+D61+E61)/3</f>
+        <v>121.66666666666667</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>122</v>
       </c>
@@ -3076,8 +3317,12 @@
         <f t="shared" si="0"/>
         <v>138.66666666666666</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f>(C62+D62+E62)/3</f>
+        <v>136.55555555555554</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>124</v>
       </c>
@@ -3094,8 +3339,12 @@
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f>(C63+D63+E63)/3</f>
+        <v>133.66666666666666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>126</v>
       </c>
@@ -3112,8 +3361,12 @@
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f>(C64+D64+E64)/3</f>
+        <v>154.66666666666666</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>128</v>
       </c>
@@ -3130,8 +3383,12 @@
         <f t="shared" si="0"/>
         <v>148.33333333333334</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f>(C65+D65+E65)/3</f>
+        <v>148.7777777777778</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>130</v>
       </c>
@@ -3148,8 +3405,12 @@
         <f t="shared" si="0"/>
         <v>162.66666666666666</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f>(C66+D66+E66)/3</f>
+        <v>162.55555555555554</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>132</v>
       </c>
@@ -3166,8 +3427,12 @@
         <f t="shared" ref="E67:E75" si="1">(B67+C67+D67)/3</f>
         <v>169</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f>(C67+D67+E67)/3</f>
+        <v>168.66666666666666</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>134</v>
       </c>
@@ -3184,8 +3449,12 @@
         <f t="shared" si="1"/>
         <v>183.66666666666666</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f>(C68+D68+E68)/3</f>
+        <v>185.88888888888889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>136</v>
       </c>
@@ -3202,8 +3471,12 @@
         <f t="shared" si="1"/>
         <v>194</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f>(C69+D69+E69)/3</f>
+        <v>190.33333333333334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>138</v>
       </c>
@@ -3220,8 +3493,12 @@
         <f t="shared" si="1"/>
         <v>202.33333333333334</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f>(C70+D70+E70)/3</f>
+        <v>206.11111111111111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>140</v>
       </c>
@@ -3238,8 +3515,12 @@
         <f t="shared" si="1"/>
         <v>225.66666666666666</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f>(C71+D71+E71)/3</f>
+        <v>226.55555555555554</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>142</v>
       </c>
@@ -3256,8 +3537,12 @@
         <f t="shared" si="1"/>
         <v>226.66666666666666</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f>(C72+D72+E72)/3</f>
+        <v>225.88888888888889</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>144</v>
       </c>
@@ -3274,8 +3559,12 @@
         <f t="shared" si="1"/>
         <v>243.33333333333334</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f>(C73+D73+E73)/3</f>
+        <v>244.44444444444446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>146</v>
       </c>
@@ -3292,8 +3581,12 @@
         <f t="shared" si="1"/>
         <v>242.66666666666666</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f>(C74+D74+E74)/3</f>
+        <v>243.2222222222222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>148</v>
       </c>
@@ -3310,8 +3603,12 @@
         <f t="shared" si="1"/>
         <v>251.66666666666666</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f>(C75+D75+E75)/3</f>
+        <v>250.2222222222222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>150</v>
       </c>
@@ -3328,8 +3625,12 @@
         <f>(B76+C76+D76)/3</f>
         <v>250</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f>(C76+D76+E76)/3</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>152</v>
       </c>
@@ -3346,8 +3647,12 @@
         <f>(B77+C77+D77)/3</f>
         <v>258</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f>(C77+D77+E77)/3</f>
+        <v>258.66666666666669</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>154</v>
       </c>
@@ -3364,8 +3669,12 @@
         <f t="shared" ref="E78:E141" si="2">(B78+C78+D78)/3</f>
         <v>274.33333333333331</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <f>(C78+D78+E78)/3</f>
+        <v>270.4444444444444</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>156</v>
       </c>
@@ -3382,8 +3691,12 @@
         <f t="shared" si="2"/>
         <v>278.33333333333331</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f>(C79+D79+E79)/3</f>
+        <v>280.11111111111109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>158</v>
       </c>
@@ -3400,8 +3713,12 @@
         <f t="shared" si="2"/>
         <v>273.33333333333331</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f>(C80+D80+E80)/3</f>
+        <v>273.11111111111109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>160</v>
       </c>
@@ -3418,8 +3735,12 @@
         <f t="shared" si="2"/>
         <v>261</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <f>(C81+D81+E81)/3</f>
+        <v>262.66666666666669</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>162</v>
       </c>
@@ -3436,8 +3757,12 @@
         <f t="shared" si="2"/>
         <v>263.66666666666669</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <f>(C82+D82+E82)/3</f>
+        <v>260.5555555555556</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>164</v>
       </c>
@@ -3454,8 +3779,12 @@
         <f t="shared" si="2"/>
         <v>251.33333333333334</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <f>(C83+D83+E83)/3</f>
+        <v>249.44444444444446</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>166</v>
       </c>
@@ -3472,8 +3801,12 @@
         <f t="shared" si="2"/>
         <v>248.33333333333334</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <f>(C84+D84+E84)/3</f>
+        <v>244.44444444444446</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>168</v>
       </c>
@@ -3490,8 +3823,12 @@
         <f t="shared" si="2"/>
         <v>237.66666666666666</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <f>(C85+D85+E85)/3</f>
+        <v>236.2222222222222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>170</v>
       </c>
@@ -3508,8 +3845,12 @@
         <f t="shared" si="2"/>
         <v>226.33333333333334</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <f>(C86+D86+E86)/3</f>
+        <v>231.44444444444446</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>172</v>
       </c>
@@ -3526,8 +3867,12 @@
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <f>(C87+D87+E87)/3</f>
+        <v>215.66666666666666</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>174</v>
       </c>
@@ -3544,8 +3889,12 @@
         <f t="shared" si="2"/>
         <v>214</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <f>(C88+D88+E88)/3</f>
+        <v>211.66666666666666</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>176</v>
       </c>
@@ -3562,8 +3911,12 @@
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <f>(C89+D89+E89)/3</f>
+        <v>204.66666666666666</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>178</v>
       </c>
@@ -3580,8 +3933,12 @@
         <f t="shared" si="2"/>
         <v>180.33333333333334</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <f>(C90+D90+E90)/3</f>
+        <v>179.11111111111111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>180</v>
       </c>
@@ -3598,8 +3955,12 @@
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <f>(C91+D91+E91)/3</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>182</v>
       </c>
@@ -3616,8 +3977,12 @@
         <f t="shared" si="2"/>
         <v>170.66666666666666</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <f>(C92+D92+E92)/3</f>
+        <v>170.2222222222222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>184</v>
       </c>
@@ -3634,8 +3999,12 @@
         <f t="shared" si="2"/>
         <v>157.33333333333334</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <f>(C93+D93+E93)/3</f>
+        <v>158.11111111111111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>186</v>
       </c>
@@ -3652,8 +4021,12 @@
         <f t="shared" si="2"/>
         <v>145.33333333333334</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <f>(C94+D94+E94)/3</f>
+        <v>147.7777777777778</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>188</v>
       </c>
@@ -3670,8 +4043,12 @@
         <f t="shared" si="2"/>
         <v>142.33333333333334</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <f>(C95+D95+E95)/3</f>
+        <v>144.44444444444446</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>190</v>
       </c>
@@ -3688,8 +4065,12 @@
         <f t="shared" si="2"/>
         <v>125.33333333333333</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <f>(C96+D96+E96)/3</f>
+        <v>122.1111111111111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>192</v>
       </c>
@@ -3706,8 +4087,12 @@
         <f t="shared" si="2"/>
         <v>131.66666666666666</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <f>(C97+D97+E97)/3</f>
+        <v>130.88888888888889</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>194</v>
       </c>
@@ -3724,8 +4109,12 @@
         <f t="shared" si="2"/>
         <v>135.33333333333334</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <f>(C98+D98+E98)/3</f>
+        <v>133.7777777777778</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>196</v>
       </c>
@@ -3742,8 +4131,12 @@
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <f>(C99+D99+E99)/3</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>198</v>
       </c>
@@ -3760,8 +4153,12 @@
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <f>(C100+D100+E100)/3</f>
+        <v>139.33333333333334</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>200</v>
       </c>
@@ -3778,8 +4175,12 @@
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <f>(C101+D101+E101)/3</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>202</v>
       </c>
@@ -3796,8 +4197,12 @@
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <f>(C102+D102+E102)/3</f>
+        <v>143.66666666666666</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>204</v>
       </c>
@@ -3814,8 +4219,12 @@
         <f t="shared" si="2"/>
         <v>144.33333333333334</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <f>(C103+D103+E103)/3</f>
+        <v>144.7777777777778</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>206</v>
       </c>
@@ -3832,8 +4241,12 @@
         <f t="shared" si="2"/>
         <v>157.66666666666666</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <f>(C104+D104+E104)/3</f>
+        <v>158.55555555555554</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>208</v>
       </c>
@@ -3850,8 +4263,12 @@
         <f t="shared" si="2"/>
         <v>160.33333333333334</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <f>(C105+D105+E105)/3</f>
+        <v>161.11111111111111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>210</v>
       </c>
@@ -3868,8 +4285,12 @@
         <f t="shared" si="2"/>
         <v>171.33333333333334</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <f>(C106+D106+E106)/3</f>
+        <v>171.44444444444446</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>212</v>
       </c>
@@ -3886,8 +4307,12 @@
         <f t="shared" si="2"/>
         <v>188.33333333333334</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <f>(C107+D107+E107)/3</f>
+        <v>189.11111111111111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>214</v>
       </c>
@@ -3904,8 +4329,12 @@
         <f t="shared" si="2"/>
         <v>195</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <f>(C108+D108+E108)/3</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>216</v>
       </c>
@@ -3922,8 +4351,12 @@
         <f t="shared" si="2"/>
         <v>211.33333333333334</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <f>(C109+D109+E109)/3</f>
+        <v>212.7777777777778</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>218</v>
       </c>
@@ -3940,8 +4373,12 @@
         <f t="shared" si="2"/>
         <v>212.66666666666666</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <f>(C110+D110+E110)/3</f>
+        <v>211.88888888888889</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>220</v>
       </c>
@@ -3958,8 +4395,12 @@
         <f t="shared" si="2"/>
         <v>230.66666666666666</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <f>(C111+D111+E111)/3</f>
+        <v>235.88888888888889</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>222</v>
       </c>
@@ -3976,8 +4417,12 @@
         <f t="shared" si="2"/>
         <v>239.33333333333334</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <f>(C112+D112+E112)/3</f>
+        <v>239.44444444444446</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>224</v>
       </c>
@@ -3994,8 +4439,12 @@
         <f t="shared" si="2"/>
         <v>240.33333333333334</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <f>(C113+D113+E113)/3</f>
+        <v>238.7777777777778</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>226</v>
       </c>
@@ -4012,8 +4461,12 @@
         <f t="shared" si="2"/>
         <v>244</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <f>(C114+D114+E114)/3</f>
+        <v>244.33333333333334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>228</v>
       </c>
@@ -4030,8 +4483,12 @@
         <f t="shared" si="2"/>
         <v>236.66666666666666</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <f>(C115+D115+E115)/3</f>
+        <v>239.2222222222222</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>230</v>
       </c>
@@ -4048,8 +4505,12 @@
         <f t="shared" si="2"/>
         <v>261.66666666666669</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <f>(C116+D116+E116)/3</f>
+        <v>270.22222222222223</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>232</v>
       </c>
@@ -4066,8 +4527,12 @@
         <f t="shared" si="2"/>
         <v>251.66666666666666</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <f>(C117+D117+E117)/3</f>
+        <v>248.2222222222222</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>234</v>
       </c>
@@ -4084,8 +4549,12 @@
         <f t="shared" si="2"/>
         <v>251.66666666666666</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <f>(C118+D118+E118)/3</f>
+        <v>252.55555555555554</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>236</v>
       </c>
@@ -4102,8 +4571,12 @@
         <f t="shared" si="2"/>
         <v>254</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <f>(C119+D119+E119)/3</f>
+        <v>256.66666666666669</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>238</v>
       </c>
@@ -4120,8 +4593,12 @@
         <f t="shared" si="2"/>
         <v>251.66666666666666</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <f>(C120+D120+E120)/3</f>
+        <v>247.55555555555554</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>240</v>
       </c>
@@ -4138,8 +4615,12 @@
         <f t="shared" si="2"/>
         <v>232.33333333333334</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <f>(C121+D121+E121)/3</f>
+        <v>235.11111111111111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>242</v>
       </c>
@@ -4156,8 +4637,12 @@
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <f>(C122+D122+E122)/3</f>
+        <v>256.66666666666669</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>244</v>
       </c>
@@ -4174,8 +4659,12 @@
         <f t="shared" si="2"/>
         <v>241.66666666666666</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <f>(C123+D123+E123)/3</f>
+        <v>244.55555555555554</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>246</v>
       </c>
@@ -4192,8 +4681,12 @@
         <f t="shared" si="2"/>
         <v>220.66666666666666</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <f>(C124+D124+E124)/3</f>
+        <v>221.88888888888889</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>248</v>
       </c>
@@ -4210,8 +4703,12 @@
         <f t="shared" si="2"/>
         <v>208.33333333333334</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <f>(C125+D125+E125)/3</f>
+        <v>211.44444444444446</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>250</v>
       </c>
@@ -4228,8 +4725,12 @@
         <f t="shared" si="2"/>
         <v>200.33333333333334</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <f>(C126+D126+E126)/3</f>
+        <v>202.11111111111111</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>252</v>
       </c>
@@ -4246,8 +4747,12 @@
         <f t="shared" si="2"/>
         <v>185.33333333333334</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <f>(C127+D127+E127)/3</f>
+        <v>186.44444444444446</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>254</v>
       </c>
@@ -4264,8 +4769,12 @@
         <f t="shared" si="2"/>
         <v>193</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <f>(C128+D128+E128)/3</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>256</v>
       </c>
@@ -4282,8 +4791,12 @@
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <f>(C129+D129+E129)/3</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>258</v>
       </c>
@@ -4300,8 +4813,12 @@
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <f>(C130+D130+E130)/3</f>
+        <v>169.33333333333334</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>260</v>
       </c>
@@ -4318,8 +4835,12 @@
         <f t="shared" si="2"/>
         <v>161.66666666666666</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <f>(C131+D131+E131)/3</f>
+        <v>160.88888888888889</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>262</v>
       </c>
@@ -4336,8 +4857,12 @@
         <f t="shared" si="2"/>
         <v>145.33333333333334</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <f>(C132+D132+E132)/3</f>
+        <v>145.11111111111111</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>264</v>
       </c>
@@ -4354,8 +4879,12 @@
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <f>(C133+D133+E133)/3</f>
+        <v>147.33333333333334</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>266</v>
       </c>
@@ -4372,8 +4901,12 @@
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <f>(C134+D134+E134)/3</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>268</v>
       </c>
@@ -4390,8 +4923,12 @@
         <f t="shared" si="2"/>
         <v>133.33333333333334</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <f>(C135+D135+E135)/3</f>
+        <v>133.7777777777778</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>270</v>
       </c>
@@ -4408,8 +4945,12 @@
         <f t="shared" si="2"/>
         <v>129.66666666666666</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <f>(C136+D136+E136)/3</f>
+        <v>126.22222222222221</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>272</v>
       </c>
@@ -4426,8 +4967,12 @@
         <f t="shared" si="2"/>
         <v>123.66666666666667</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <f>(C137+D137+E137)/3</f>
+        <v>124.22222222222223</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>274</v>
       </c>
@@ -4444,8 +4989,12 @@
         <f t="shared" si="2"/>
         <v>127.33333333333333</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <f>(C138+D138+E138)/3</f>
+        <v>123.77777777777777</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>276</v>
       </c>
@@ -4462,8 +5011,12 @@
         <f t="shared" si="2"/>
         <v>126.33333333333333</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <f>(C139+D139+E139)/3</f>
+        <v>124.1111111111111</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>278</v>
       </c>
@@ -4480,8 +5033,12 @@
         <f t="shared" si="2"/>
         <v>130.66666666666666</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <f>(C140+D140+E140)/3</f>
+        <v>130.2222222222222</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>280</v>
       </c>
@@ -4498,8 +5055,12 @@
         <f t="shared" si="2"/>
         <v>128.66666666666666</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <f>(C141+D141+E141)/3</f>
+        <v>126.55555555555554</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>282</v>
       </c>
@@ -4516,8 +5077,12 @@
         <f t="shared" ref="E142:E183" si="3">(B142+C142+D142)/3</f>
         <v>137</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <f>(C142+D142+E142)/3</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>284</v>
       </c>
@@ -4534,8 +5099,12 @@
         <f t="shared" si="3"/>
         <v>149.33333333333334</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <f>(C143+D143+E143)/3</f>
+        <v>148.44444444444446</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>286</v>
       </c>
@@ -4552,8 +5121,12 @@
         <f t="shared" si="3"/>
         <v>152.33333333333334</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <f>(C144+D144+E144)/3</f>
+        <v>150.7777777777778</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>288</v>
       </c>
@@ -4570,8 +5143,12 @@
         <f t="shared" si="3"/>
         <v>167.33333333333334</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <f>(C145+D145+E145)/3</f>
+        <v>168.7777777777778</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>290</v>
       </c>
@@ -4588,8 +5165,12 @@
         <f t="shared" si="3"/>
         <v>163.33333333333334</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <f>(C146+D146+E146)/3</f>
+        <v>168.44444444444446</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>292</v>
       </c>
@@ -4606,8 +5187,12 @@
         <f t="shared" si="3"/>
         <v>175.66666666666666</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <f>(C147+D147+E147)/3</f>
+        <v>176.2222222222222</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>294</v>
       </c>
@@ -4624,8 +5209,12 @@
         <f t="shared" si="3"/>
         <v>187.66666666666666</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <f>(C148+D148+E148)/3</f>
+        <v>183.88888888888889</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>296</v>
       </c>
@@ -4642,8 +5231,12 @@
         <f t="shared" si="3"/>
         <v>181.66666666666666</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <f>(C149+D149+E149)/3</f>
+        <v>180.88888888888889</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>298</v>
       </c>
@@ -4660,8 +5253,12 @@
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <f>(C150+D150+E150)/3</f>
+        <v>196.33333333333334</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>300</v>
       </c>
@@ -4678,8 +5275,12 @@
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <f>(C151+D151+E151)/3</f>
+        <v>206.33333333333334</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>302</v>
       </c>
@@ -4696,8 +5297,12 @@
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <f>(C152+D152+E152)/3</f>
+        <v>248.33333333333334</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>304</v>
       </c>
@@ -4714,8 +5319,12 @@
         <f t="shared" si="3"/>
         <v>207.66666666666666</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <f>(C153+D153+E153)/3</f>
+        <v>205.2222222222222</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>306</v>
       </c>
@@ -4732,8 +5341,12 @@
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <f>(C154+D154+E154)/3</f>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>308</v>
       </c>
@@ -4750,8 +5363,12 @@
         <f t="shared" si="3"/>
         <v>221.66666666666666</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <f>(C155+D155+E155)/3</f>
+        <v>221.2222222222222</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>310</v>
       </c>
@@ -4768,8 +5385,12 @@
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <f>(C156+D156+E156)/3</f>
+        <v>218.66666666666666</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>312</v>
       </c>
@@ -4786,8 +5407,12 @@
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <f>(C157+D157+E157)/3</f>
+        <v>216.66666666666666</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>314</v>
       </c>
@@ -4804,8 +5429,12 @@
         <f t="shared" si="3"/>
         <v>210.66666666666666</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <f>(C158+D158+E158)/3</f>
+        <v>212.55555555555554</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>316</v>
       </c>
@@ -4822,8 +5451,12 @@
         <f t="shared" si="3"/>
         <v>206.33333333333334</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <f>(C159+D159+E159)/3</f>
+        <v>208.11111111111111</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>318</v>
       </c>
@@ -4840,8 +5473,12 @@
         <f t="shared" si="3"/>
         <v>195.66666666666666</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <f>(C160+D160+E160)/3</f>
+        <v>197.88888888888889</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>320</v>
       </c>
@@ -4858,8 +5495,12 @@
         <f t="shared" si="3"/>
         <v>183.66666666666666</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <f>(C161+D161+E161)/3</f>
+        <v>181.55555555555554</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>322</v>
       </c>
@@ -4876,8 +5517,12 @@
         <f t="shared" si="3"/>
         <v>181.66666666666666</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <f>(C162+D162+E162)/3</f>
+        <v>180.2222222222222</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>324</v>
       </c>
@@ -4894,8 +5539,12 @@
         <f t="shared" si="3"/>
         <v>184.66666666666666</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <f>(C163+D163+E163)/3</f>
+        <v>182.88888888888889</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>326</v>
       </c>
@@ -4912,8 +5561,12 @@
         <f t="shared" si="3"/>
         <v>179</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <f>(C164+D164+E164)/3</f>
+        <v>177.33333333333334</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>328</v>
       </c>
@@ -4930,8 +5583,12 @@
         <f t="shared" si="3"/>
         <v>176.33333333333334</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <f>(C165+D165+E165)/3</f>
+        <v>175.44444444444446</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>330</v>
       </c>
@@ -4948,8 +5605,12 @@
         <f t="shared" si="3"/>
         <v>157.33333333333334</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <f>(C166+D166+E166)/3</f>
+        <v>153.11111111111111</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>332</v>
       </c>
@@ -4966,8 +5627,12 @@
         <f t="shared" si="3"/>
         <v>161.66666666666666</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <f>(C167+D167+E167)/3</f>
+        <v>160.88888888888889</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>334</v>
       </c>
@@ -4984,8 +5649,12 @@
         <f t="shared" si="3"/>
         <v>147.66666666666666</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <f>(C168+D168+E168)/3</f>
+        <v>149.55555555555554</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>336</v>
       </c>
@@ -5002,8 +5671,12 @@
         <f t="shared" si="3"/>
         <v>139</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <f>(C169+D169+E169)/3</f>
+        <v>136.33333333333334</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>338</v>
       </c>
@@ -5020,8 +5693,12 @@
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <f>(C170+D170+E170)/3</f>
+        <v>129.33333333333334</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>340</v>
       </c>
@@ -5038,8 +5715,12 @@
         <f t="shared" si="3"/>
         <v>132</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <f>(C171+D171+E171)/3</f>
+        <v>131.66666666666666</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>342</v>
       </c>
@@ -5056,8 +5737,12 @@
         <f t="shared" si="3"/>
         <v>127.33333333333333</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <f>(C172+D172+E172)/3</f>
+        <v>126.77777777777777</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>344</v>
       </c>
@@ -5074,8 +5759,12 @@
         <f t="shared" si="3"/>
         <v>122.66666666666667</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <f>(C173+D173+E173)/3</f>
+        <v>120.55555555555556</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>346</v>
       </c>
@@ -5092,8 +5781,12 @@
         <f t="shared" si="3"/>
         <v>122.66666666666667</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <f>(C174+D174+E174)/3</f>
+        <v>122.55555555555556</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>348</v>
       </c>
@@ -5110,8 +5803,12 @@
         <f t="shared" si="3"/>
         <v>114.33333333333333</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <f>(C175+D175+E175)/3</f>
+        <v>113.77777777777777</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>350</v>
       </c>
@@ -5128,8 +5825,12 @@
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <f>(C176+D176+E176)/3</f>
+        <v>108.33333333333333</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>352</v>
       </c>
@@ -5146,8 +5847,12 @@
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <f>(C177+D177+E177)/3</f>
+        <v>114.33333333333333</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>354</v>
       </c>
@@ -5164,8 +5869,12 @@
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <f>(C178+D178+E178)/3</f>
+        <v>111.33333333333333</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>356</v>
       </c>
@@ -5182,8 +5891,12 @@
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <f>(C179+D179+E179)/3</f>
+        <v>108.33333333333333</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>358</v>
       </c>
@@ -5200,8 +5913,12 @@
         <f t="shared" si="3"/>
         <v>110.66666666666667</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <f>(C180+D180+E180)/3</f>
+        <v>105.8888888888889</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>360</v>
       </c>
@@ -5218,8 +5935,12 @@
         <f t="shared" si="3"/>
         <v>119.33333333333333</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <f>(C181+D181+E181)/3</f>
+        <v>118.44444444444444</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>362</v>
       </c>
@@ -5236,8 +5957,12 @@
         <f t="shared" si="3"/>
         <v>122.33333333333333</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <f>(C182+D182+E182)/3</f>
+        <v>122.77777777777777</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>364</v>
       </c>
@@ -5254,1098 +5979,32 @@
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401">
-        <v>800</v>
+      <c r="F183">
+        <f>(C183+D183+E183)/3</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <f>(C184+D184+E184)/3</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6B01D5-F123-43AF-8D10-1CE965690DAE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A182"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>